--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MAINE_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MAINE_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -491,12 +491,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C11">
@@ -522,12 +522,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C12">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C13">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TEXCALTITLÁN</t>
+          <t>Texcaltitlán</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -579,12 +579,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C20">
@@ -649,12 +649,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>COAHUAYUTLA DE JOSÉ MARÍA IZAZAGA</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>MÁRTIR DE CUILAPAN</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C28">
@@ -758,12 +758,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C29">
@@ -776,7 +776,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C30">
@@ -789,7 +789,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C31">
@@ -802,7 +802,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C32">
@@ -815,12 +815,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C33">
@@ -833,7 +833,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C34">
@@ -846,7 +846,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C35">
@@ -859,12 +859,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C36">
@@ -877,7 +877,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C37">
@@ -890,7 +890,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C38">
@@ -903,7 +903,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>VISTA HERMOSA</t>
+          <t>Vista Hermosa</t>
         </is>
       </c>
       <c r="C39">
@@ -916,7 +916,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C40">
@@ -929,12 +929,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C41">
@@ -947,7 +947,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C42">
@@ -960,7 +960,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C43">
@@ -973,7 +973,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C44">
@@ -986,12 +986,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C45">
@@ -1004,7 +1004,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C46">
@@ -1017,12 +1017,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C47">
@@ -1035,7 +1035,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>SAN JUAN OZOLOTEPEC</t>
+          <t>San Juan Ozolotepec</t>
         </is>
       </c>
       <c r="C48">
@@ -1048,7 +1048,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C49">
@@ -1061,12 +1061,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C50">
@@ -1079,7 +1079,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C51">
@@ -1092,7 +1092,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C52">
@@ -1105,7 +1105,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C53">
@@ -1118,7 +1118,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C54">
@@ -1131,7 +1131,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C55">
@@ -1144,7 +1144,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>XOCHITLÁN DE VICENTE SUÁREZ</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C56">
@@ -1157,7 +1157,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C57">
@@ -1170,12 +1170,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C58">
@@ -1188,7 +1188,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C59">
@@ -1201,7 +1201,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C60">
@@ -1214,12 +1214,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C61">
@@ -1232,7 +1232,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C62">
@@ -1245,12 +1245,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C63">
@@ -1263,7 +1263,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C64">
@@ -1276,12 +1276,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C65">
@@ -1294,7 +1294,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C66">
@@ -1307,7 +1307,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>COXQUIHUI</t>
+          <t>Coxquihui</t>
         </is>
       </c>
       <c r="C67">
@@ -1320,7 +1320,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C68">
@@ -1333,7 +1333,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C69">
@@ -1346,7 +1346,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C70">
@@ -1359,7 +1359,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>SOCONUSCO</t>
+          <t>Soconusco</t>
         </is>
       </c>
       <c r="C71">
@@ -1372,7 +1372,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TLACHICHILCO</t>
+          <t>Tlachichilco</t>
         </is>
       </c>
       <c r="C72">
@@ -1385,7 +1385,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C73">
@@ -1398,7 +1398,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C74">
@@ -1411,7 +1411,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C75">
@@ -1419,41 +1419,6 @@
       </c>
       <c r="D75">
         <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MAINE_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MAINE_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Vista Hermosa</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Xochitlán De Vicente Suárez</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1186,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1292,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Coxquihui</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Soconusco</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
